--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
@@ -43,139 +43,175 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>terrible</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>might</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>wood</t>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fall</t>
   </si>
   <si>
     <t>half</t>
@@ -184,193 +220,190 @@
     <t>un</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>fl</t>
   </si>
   <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
-    <t>return</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>parts</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>almost</t>
+    <t>fit</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>looked</t>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>stick</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>put</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>1</t>
+    <t>something</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>wanted</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>want</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>found</t>
+    <t>made</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>enough</t>
+    <t>received</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>34</t>
@@ -379,37 +412,19 @@
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>go</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>get</t>
@@ -421,22 +436,16 @@
     <t>still</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>bought</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>time</t>
@@ -445,42 +454,42 @@
     <t>really</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>fantastic</t>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>excellent</t>
   </si>
   <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -493,85 +502,76 @@
     <t>loves</t>
   </si>
   <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>games</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -932,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,7 +940,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J1" t="s">
         <v>186</v>
@@ -1022,16 +1022,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1051,13 +1051,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9047619047619048</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1069,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.85</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1101,13 +1101,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8863636363636364</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1119,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1151,38 +1151,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L6">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K6">
-        <v>0.75</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1201,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1251,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1272,16 +1272,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K8">
-        <v>0.7204301075268817</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1301,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1322,16 +1322,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K9">
-        <v>0.660377358490566</v>
+        <v>0.625</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1351,13 +1351,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7887323943661971</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="C10">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10">
+        <v>0.625</v>
+      </c>
+      <c r="L10">
         <v>15</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10">
-        <v>0.578125</v>
-      </c>
-      <c r="L10">
-        <v>37</v>
-      </c>
       <c r="M10">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1401,13 +1401,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.78125</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1419,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K11">
-        <v>0.4347826086956522</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1451,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1469,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K12">
-        <v>0.4344262295081967</v>
+        <v>0.4565573770491803</v>
       </c>
       <c r="L12">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="M12">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>690</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1501,13 +1501,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.777027027027027</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C13">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D13">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1519,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K13">
-        <v>0.4051724137931034</v>
+        <v>0.4347202295552367</v>
       </c>
       <c r="L13">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="M13">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1551,13 +1551,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7634408602150538</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C14">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1569,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K14">
-        <v>0.4024896265560166</v>
+        <v>0.3962655601659751</v>
       </c>
       <c r="L14">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M14">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1601,13 +1601,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1619,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K15">
-        <v>0.3272727272727273</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1651,13 +1651,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1669,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K16">
-        <v>0.3207547169811321</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1701,13 +1701,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7572815533980582</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C17">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1719,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K17">
-        <v>0.3180428134556575</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L17">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>223</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1751,13 +1751,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6956521739130435</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1772,28 +1772,28 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K18">
-        <v>0.3121693121693122</v>
+        <v>0.2883435582822086</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>130</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1801,13 +1801,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6909090909090909</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1819,31 +1819,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K19">
-        <v>0.3083333333333333</v>
+        <v>0.2712765957446808</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1851,13 +1851,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6857142857142857</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K20">
-        <v>0.2771084337349398</v>
+        <v>0.2109375</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1922,28 +1922,28 @@
         <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K21">
-        <v>0.25</v>
+        <v>0.1814516129032258</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>96</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1951,13 +1951,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1969,31 +1969,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K22">
-        <v>0.1888111888111888</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2001,13 +2001,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6458333333333334</v>
+        <v>0.6722689075630253</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2019,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K23">
-        <v>0.1794871794871795</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2051,13 +2051,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6050420168067226</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C24">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2069,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K24">
-        <v>0.1710758377425044</v>
+        <v>0.1640350877192983</v>
       </c>
       <c r="L24">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M24">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>940</v>
+        <v>953</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2101,13 +2101,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2122,28 +2122,28 @@
         <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K25">
-        <v>0.1699346405228758</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2151,38 +2151,38 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5925925925925926</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26">
+        <v>0.1367521367521368</v>
+      </c>
+      <c r="L26">
         <v>16</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>11</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="L26">
-        <v>42</v>
-      </c>
-      <c r="M26">
-        <v>42</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>207</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2201,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5903614457831325</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2219,31 +2219,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K27">
-        <v>0.1666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2251,13 +2251,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5806451612903226</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2269,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K28">
-        <v>0.1612903225806452</v>
+        <v>0.116991643454039</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>156</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2301,13 +2301,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5777777777777777</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2319,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K29">
-        <v>0.136</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2351,13 +2351,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5740740740740741</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2369,31 +2369,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K30">
-        <v>0.0949367088607595</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="O30">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2401,13 +2401,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5740740740740741</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2419,31 +2419,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K31">
-        <v>0.0947075208913649</v>
+        <v>0.1011089367253751</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>325</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2451,13 +2451,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2469,31 +2469,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K32">
-        <v>0.09031838856400259</v>
+        <v>0.09627329192546584</v>
       </c>
       <c r="L32">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1400</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2501,49 +2501,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5526315789473685</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>25</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K33">
+        <v>0.08267716535433071</v>
+      </c>
+      <c r="L33">
         <v>21</v>
       </c>
-      <c r="D33">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>17</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K33">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="L33">
-        <v>28</v>
-      </c>
       <c r="M33">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>294</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2551,13 +2551,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5449275362318841</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C34">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2569,31 +2569,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K34">
-        <v>0.08064516129032258</v>
+        <v>0.07774798927613941</v>
       </c>
       <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
         <v>30</v>
       </c>
-      <c r="M34">
-        <v>32</v>
-      </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2601,13 +2601,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5433070866141733</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C35">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2619,31 +2619,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K35">
-        <v>0.07392996108949416</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>238</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2651,13 +2651,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5306122448979592</v>
+        <v>0.515625</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2669,31 +2669,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="K36">
-        <v>0.05787781350482315</v>
+        <v>0.0463768115942029</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N36">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="O36">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>293</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2701,13 +2701,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.509090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2719,31 +2719,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K37">
-        <v>0.05033557046979865</v>
+        <v>0.0463768115942029</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="O37">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>283</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2751,13 +2751,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.46875</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2769,31 +2769,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K38">
-        <v>0.04973118279569892</v>
+        <v>0.03748326639892905</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N38">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="O38">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>707</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2801,13 +2801,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4631578947368421</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2819,31 +2819,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K39">
-        <v>0.04373177842565597</v>
+        <v>0.03435804701627487</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N39">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="O39">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>328</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2851,13 +2851,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4609375</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2869,31 +2869,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>69</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K40">
-        <v>0.03770197486535009</v>
-      </c>
-      <c r="L40">
-        <v>21</v>
-      </c>
-      <c r="M40">
-        <v>29</v>
-      </c>
-      <c r="N40">
-        <v>0.72</v>
-      </c>
-      <c r="O40">
-        <v>0.28</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>536</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2901,13 +2877,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4606741573033708</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2919,31 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>48</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K41">
-        <v>0.03591954022988506</v>
-      </c>
-      <c r="L41">
-        <v>25</v>
-      </c>
-      <c r="M41">
-        <v>34</v>
-      </c>
-      <c r="N41">
-        <v>0.74</v>
-      </c>
-      <c r="O41">
-        <v>0.26</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>671</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2951,13 +2903,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4603174603174603</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2969,31 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>34</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K42">
-        <v>0.02074688796680498</v>
-      </c>
-      <c r="L42">
-        <v>15</v>
-      </c>
-      <c r="M42">
-        <v>86</v>
-      </c>
-      <c r="N42">
-        <v>0.17</v>
-      </c>
-      <c r="O42">
-        <v>0.83</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>708</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3001,13 +2929,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4549763033175355</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C43">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3019,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3027,13 +2955,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4504950495049505</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C44">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3045,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3053,13 +2981,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4444444444444444</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3071,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3079,13 +3007,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4390243902439024</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3097,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3105,13 +3033,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4358974358974359</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3123,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3131,13 +3059,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4324324324324325</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3149,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3157,13 +3085,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4259259259259259</v>
+        <v>0.4407582938388626</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3175,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3183,13 +3111,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4186046511627907</v>
+        <v>0.4296875</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3201,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3209,13 +3137,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3235,13 +3163,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4098360655737705</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3253,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3261,13 +3189,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3279,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3287,13 +3215,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.396551724137931</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3305,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3313,13 +3241,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3947368421052632</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3331,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3339,13 +3267,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3928571428571428</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3357,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3365,13 +3293,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3928571428571428</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3383,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3391,13 +3319,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3846153846153846</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="C58">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3409,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3417,13 +3345,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3809523809523809</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3435,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3443,13 +3371,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3623188405797101</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3461,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3469,13 +3397,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3548387096774194</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3487,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3495,13 +3423,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3478260869565217</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3513,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3521,13 +3449,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3432835820895522</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3539,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3547,13 +3475,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3406593406593407</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="C64">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3565,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3573,13 +3501,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3591,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3599,13 +3527,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3265306122448979</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3617,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3625,25 +3553,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.3196202531645569</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="C67">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="D67">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>215</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3651,13 +3579,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.3163265306122449</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C68">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3677,13 +3605,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.3041237113402062</v>
+        <v>0.3006329113924051</v>
       </c>
       <c r="C69">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D69">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3695,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>135</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3703,25 +3631,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.3</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E70">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3729,13 +3657,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2990654205607476</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C71">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D71">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3747,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>150</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3755,13 +3683,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2926829268292683</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D72">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3773,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3781,13 +3709,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2857142857142857</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3799,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3807,13 +3735,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2837837837837838</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3825,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3833,25 +3761,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.282051282051282</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C75">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>56</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3859,25 +3787,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.28</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E76">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3885,13 +3813,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2783505154639175</v>
+        <v>0.285</v>
       </c>
       <c r="C77">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D77">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3903,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3911,13 +3839,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2777777777777778</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3929,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>78</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3937,25 +3865,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.275</v>
+        <v>0.2710280373831775</v>
       </c>
       <c r="C79">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D79">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>145</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3963,25 +3891,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2742857142857143</v>
+        <v>0.2697466467958271</v>
       </c>
       <c r="C80">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="D80">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3989,13 +3917,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2721518987341772</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C81">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4007,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>230</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4015,13 +3943,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2717391304347826</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="C82">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D82">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4033,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>201</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4041,25 +3969,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2708333333333333</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D83">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>70</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4067,13 +3995,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.2702702702702703</v>
+        <v>0.2627118644067797</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4085,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4093,13 +4021,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2666666666666667</v>
+        <v>0.2611464968152866</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4111,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4119,13 +4047,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2666666666666667</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4137,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4145,25 +4073,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2589928057553957</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C87">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D87">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E87">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4171,25 +4099,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.2540861812778603</v>
+        <v>0.2523364485981308</v>
       </c>
       <c r="C88">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="D88">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="E88">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>502</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4197,13 +4125,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2535211267605634</v>
+        <v>0.25</v>
       </c>
       <c r="C89">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4215,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4223,25 +4151,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2450331125827815</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C90">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="D90">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="E90">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>342</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4249,13 +4177,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2432432432432433</v>
+        <v>0.2378854625550661</v>
       </c>
       <c r="C91">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D91">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4267,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>56</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4275,25 +4203,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2420749279538905</v>
+        <v>0.234375</v>
       </c>
       <c r="C92">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D92">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E92">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>263</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4301,13 +4229,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2356687898089172</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C93">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D93">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4319,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>120</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4327,13 +4255,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2349726775956284</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="C94">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4345,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4353,13 +4281,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.2288135593220339</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="C95">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D95">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4371,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>91</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4379,25 +4307,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.225</v>
+        <v>0.2145748987854251</v>
       </c>
       <c r="C96">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D96">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E96">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F96">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>124</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4405,25 +4333,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2248062015503876</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C97">
+        <v>27</v>
+      </c>
+      <c r="D97">
         <v>29</v>
       </c>
-      <c r="D97">
-        <v>30</v>
-      </c>
       <c r="E97">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F97">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4431,13 +4359,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2156862745098039</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="C98">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D98">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4449,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4457,13 +4385,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.2142857142857143</v>
+        <v>0.1989528795811518</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4475,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>55</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4483,13 +4411,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.201058201058201</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="C100">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E100">
         <v>0.05</v>
@@ -4501,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4509,25 +4437,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1954887218045113</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="C101">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D101">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>214</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4535,25 +4463,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1933701657458564</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C102">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D102">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E102">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>292</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4561,13 +4489,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1927083333333333</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="C103">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D103">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4579,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4587,13 +4515,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.183206106870229</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C104">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D104">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4605,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4613,25 +4541,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1746031746031746</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C105">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E105">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4639,13 +4567,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1680327868852459</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="C106">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D106">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E106">
         <v>0.09</v>
@@ -4657,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4665,13 +4593,13 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1666666666666667</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="C107">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4683,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4691,13 +4619,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1595744680851064</v>
+        <v>0.1677018633540373</v>
       </c>
       <c r="C108">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4709,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4717,13 +4645,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1530612244897959</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C109">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D109">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4735,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4743,25 +4671,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1515151515151515</v>
+        <v>0.1641221374045801</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D110">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E110">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="F110">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>84</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4769,25 +4697,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.15</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="C111">
         <v>15</v>
       </c>
       <c r="D111">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E111">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4795,25 +4723,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.148936170212766</v>
+        <v>0.1532846715328467</v>
       </c>
       <c r="C112">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D112">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E112">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>160</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4821,7 +4749,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.145985401459854</v>
+        <v>0.1526717557251908</v>
       </c>
       <c r="C113">
         <v>20</v>
@@ -4839,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4847,13 +4775,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1455696202531646</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="C114">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4865,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4873,25 +4801,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1434977578475336</v>
+        <v>0.1464788732394366</v>
       </c>
       <c r="C115">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D115">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E115">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>382</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4899,25 +4827,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1420454545454546</v>
+        <v>0.1460055096418733</v>
       </c>
       <c r="C116">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D116">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E116">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F116">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4925,25 +4853,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1397849462365591</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C117">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D117">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E117">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F117">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4951,25 +4879,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1376146788990826</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="C118">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4977,25 +4905,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.136094674556213</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C119">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D119">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E119">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F119">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>146</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5003,25 +4931,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1298701298701299</v>
+        <v>0.1376811594202899</v>
       </c>
       <c r="C120">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>134</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5029,25 +4957,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.1293103448275862</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D121">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E121">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>101</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5055,25 +4983,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1271186440677966</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="C122">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D122">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E122">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5081,25 +5009,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.126984126984127</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="C123">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D123">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E123">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F123">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>275</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5107,25 +5035,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1225165562913907</v>
+        <v>0.1283783783783784</v>
       </c>
       <c r="C124">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D124">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E124">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>530</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5133,13 +5061,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.12</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C125">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D125">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5151,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5159,25 +5087,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1073825503355705</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="C126">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D126">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E126">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F126">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>133</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5185,25 +5113,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1061320754716981</v>
+        <v>0.1235431235431235</v>
       </c>
       <c r="C127">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D127">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E127">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F127">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5211,25 +5139,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1027027027027027</v>
+        <v>0.1204620462046205</v>
       </c>
       <c r="C128">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E128">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F128">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>166</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5237,25 +5165,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.1023255813953488</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="C129">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D129">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E129">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5263,25 +5191,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.1009389671361502</v>
+        <v>0.09510086455331412</v>
       </c>
       <c r="C130">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D130">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E130">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F130">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>383</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5289,25 +5217,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.09582689335394126</v>
+        <v>0.08936825885978428</v>
       </c>
       <c r="C131">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D131">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E131">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F131">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5315,25 +5243,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.09428571428571429</v>
+        <v>0.08899297423887588</v>
       </c>
       <c r="C132">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D132">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E132">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F132">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>317</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5341,7 +5269,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0935672514619883</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C133">
         <v>16</v>
@@ -5359,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5367,25 +5295,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.09114249037227215</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C134">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D134">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="E134">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F134">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>708</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5393,25 +5321,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.07784431137724551</v>
+        <v>0.0781563126252505</v>
       </c>
       <c r="C135">
         <v>39</v>
       </c>
       <c r="D135">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E135">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F135">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5419,25 +5347,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0659090909090909</v>
+        <v>0.07800511508951406</v>
       </c>
       <c r="C136">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D136">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E136">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F136">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>411</v>
+        <v>721</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5445,25 +5373,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05806451612903226</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C137">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D137">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E137">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="F137">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>438</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5471,25 +5399,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.05315614617940199</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="C138">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D138">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5497,25 +5425,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0418848167539267</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="C139">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D139">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E139">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
       <c r="F139">
-        <v>0.53</v>
+        <v>0.86</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>366</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5523,25 +5451,103 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.03539823008849557</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C140">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D140">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E140">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="F140">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>654</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="C141">
+        <v>22</v>
+      </c>
+      <c r="D141">
+        <v>33</v>
+      </c>
+      <c r="E141">
+        <v>0.33</v>
+      </c>
+      <c r="F141">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>0.04405286343612335</v>
+      </c>
+      <c r="C142">
+        <v>30</v>
+      </c>
+      <c r="D142">
+        <v>41</v>
+      </c>
+      <c r="E142">
+        <v>0.27</v>
+      </c>
+      <c r="F142">
+        <v>0.73</v>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>0.02228826151560178</v>
+      </c>
+      <c r="C143">
+        <v>15</v>
+      </c>
+      <c r="D143">
+        <v>47</v>
+      </c>
+      <c r="E143">
+        <v>0.68</v>
+      </c>
+      <c r="F143">
+        <v>0.32</v>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
